--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.93377333333333</v>
+        <v>15.23492266666667</v>
       </c>
       <c r="H2">
-        <v>44.80132</v>
+        <v>45.704768</v>
       </c>
       <c r="I2">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="J2">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N2">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O2">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P2">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q2">
-        <v>8.566783962288889</v>
+        <v>14.62766880578845</v>
       </c>
       <c r="R2">
-        <v>77.1010556606</v>
+        <v>131.649019252096</v>
       </c>
       <c r="S2">
-        <v>0.000640178072049491</v>
+        <v>0.001111979808636874</v>
       </c>
       <c r="T2">
-        <v>0.000640178072049491</v>
+        <v>0.001111979808636874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.93377333333333</v>
+        <v>15.23492266666667</v>
       </c>
       <c r="H3">
-        <v>44.80132</v>
+        <v>45.704768</v>
       </c>
       <c r="I3">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="J3">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.784709</v>
       </c>
       <c r="O3">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P3">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q3">
-        <v>58.66339100176444</v>
+        <v>59.84637675472356</v>
       </c>
       <c r="R3">
-        <v>527.97051901588</v>
+        <v>538.617390792512</v>
       </c>
       <c r="S3">
-        <v>0.004383794048818408</v>
+        <v>0.004549457842865125</v>
       </c>
       <c r="T3">
-        <v>0.004383794048818408</v>
+        <v>0.004549457842865125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.93377333333333</v>
+        <v>15.23492266666667</v>
       </c>
       <c r="H4">
-        <v>44.80132</v>
+        <v>45.704768</v>
       </c>
       <c r="I4">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="J4">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N4">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O4">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P4">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q4">
-        <v>62.53284118676889</v>
+        <v>20.05745110557156</v>
       </c>
       <c r="R4">
-        <v>562.79557068092</v>
+        <v>180.517059950144</v>
       </c>
       <c r="S4">
-        <v>0.00467295006935448</v>
+        <v>0.001524746078014223</v>
       </c>
       <c r="T4">
-        <v>0.00467295006935448</v>
+        <v>0.001524746078014223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.93377333333333</v>
+        <v>15.23492266666667</v>
       </c>
       <c r="H5">
-        <v>44.80132</v>
+        <v>45.704768</v>
       </c>
       <c r="I5">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="J5">
-        <v>0.2388991565396538</v>
+        <v>0.245239930755761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N5">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O5">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P5">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q5">
-        <v>3067.156016542991</v>
+        <v>3131.505934217899</v>
       </c>
       <c r="R5">
-        <v>27604.40414888692</v>
+        <v>28183.55340796109</v>
       </c>
       <c r="S5">
-        <v>0.2292022343494314</v>
+        <v>0.2380537470262448</v>
       </c>
       <c r="T5">
-        <v>0.2292022343494315</v>
+        <v>0.2380537470262448</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>116.20892</v>
       </c>
       <c r="I6">
-        <v>0.6196739955515621</v>
+        <v>0.623546923900845</v>
       </c>
       <c r="J6">
-        <v>0.6196739955515621</v>
+        <v>0.6235469239008449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N6">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O6">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P6">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q6">
-        <v>22.22114687984445</v>
+        <v>37.19230330713778</v>
       </c>
       <c r="R6">
-        <v>199.9903219186</v>
+        <v>334.73072976424</v>
       </c>
       <c r="S6">
-        <v>0.00166054041176808</v>
+        <v>0.002827319299017071</v>
       </c>
       <c r="T6">
-        <v>0.00166054041176808</v>
+        <v>0.00282731929901707</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>116.20892</v>
       </c>
       <c r="I7">
-        <v>0.6196739955515621</v>
+        <v>0.623546923900845</v>
       </c>
       <c r="J7">
-        <v>0.6196739955515621</v>
+        <v>0.6235469239008449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.784709</v>
       </c>
       <c r="O7">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P7">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q7">
         <v>152.1653672671422</v>
@@ -883,10 +883,10 @@
         <v>1369.48830540428</v>
       </c>
       <c r="S7">
-        <v>0.01137100362033115</v>
+        <v>0.01156744921021995</v>
       </c>
       <c r="T7">
-        <v>0.01137100362033116</v>
+        <v>0.01156744921021994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>116.20892</v>
       </c>
       <c r="I8">
-        <v>0.6196739955515621</v>
+        <v>0.623546923900845</v>
       </c>
       <c r="J8">
-        <v>0.6196739955515621</v>
+        <v>0.6235469239008449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N8">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O8">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P8">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q8">
-        <v>162.2022283907245</v>
+        <v>50.99806503626223</v>
       </c>
       <c r="R8">
-        <v>1459.82005551652</v>
+        <v>458.9825853263601</v>
       </c>
       <c r="S8">
-        <v>0.01212103752241249</v>
+        <v>0.003876818606764804</v>
       </c>
       <c r="T8">
-        <v>0.01212103752241249</v>
+        <v>0.003876818606764803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>116.20892</v>
       </c>
       <c r="I9">
-        <v>0.6196739955515621</v>
+        <v>0.623546923900845</v>
       </c>
       <c r="J9">
-        <v>0.6196739955515621</v>
+        <v>0.6235469239008449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N9">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O9">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P9">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q9">
-        <v>7955.812198255838</v>
+        <v>7962.165404472747</v>
       </c>
       <c r="R9">
-        <v>71602.30978430253</v>
+        <v>71659.48864025471</v>
       </c>
       <c r="S9">
-        <v>0.5945214139970504</v>
+        <v>0.6052753367848431</v>
       </c>
       <c r="T9">
-        <v>0.5945214139970504</v>
+        <v>0.605275336784843</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.193285333333333</v>
+        <v>6.113134</v>
       </c>
       <c r="H10">
-        <v>21.579856</v>
+        <v>18.339402</v>
       </c>
       <c r="I10">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682081</v>
       </c>
       <c r="J10">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N10">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O10">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P10">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q10">
-        <v>4.126440120275555</v>
+        <v>5.869468554182667</v>
       </c>
       <c r="R10">
-        <v>37.13796108248</v>
+        <v>52.825216987644</v>
       </c>
       <c r="S10">
-        <v>0.0003083603476233655</v>
+        <v>0.0004461907503058478</v>
       </c>
       <c r="T10">
-        <v>0.0003083603476233656</v>
+        <v>0.0004461907503058479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.193285333333333</v>
+        <v>6.113134</v>
       </c>
       <c r="H11">
-        <v>21.579856</v>
+        <v>18.339402</v>
       </c>
       <c r="I11">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682081</v>
       </c>
       <c r="J11">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.784709</v>
       </c>
       <c r="O11">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P11">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q11">
-        <v>28.25692480243377</v>
+        <v>24.01383508933533</v>
       </c>
       <c r="R11">
-        <v>254.312323221904</v>
+        <v>216.124515804018</v>
       </c>
       <c r="S11">
-        <v>0.002111581629897472</v>
+        <v>0.001825506176124914</v>
       </c>
       <c r="T11">
-        <v>0.002111581629897473</v>
+        <v>0.001825506176124914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.193285333333333</v>
+        <v>6.113134</v>
       </c>
       <c r="H12">
-        <v>21.579856</v>
+        <v>18.339402</v>
       </c>
       <c r="I12">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682081</v>
       </c>
       <c r="J12">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N12">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O12">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P12">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q12">
-        <v>30.12075778305956</v>
+        <v>8.048211926607333</v>
       </c>
       <c r="R12">
-        <v>271.086820047536</v>
+        <v>72.433907339466</v>
       </c>
       <c r="S12">
-        <v>0.002250862019062378</v>
+        <v>0.0006118165017843694</v>
       </c>
       <c r="T12">
-        <v>0.002250862019062378</v>
+        <v>0.0006118165017843694</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.193285333333333</v>
+        <v>6.113134</v>
       </c>
       <c r="H13">
-        <v>21.579856</v>
+        <v>18.339402</v>
       </c>
       <c r="I13">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682081</v>
       </c>
       <c r="J13">
-        <v>0.1150727120684656</v>
+        <v>0.09840447448682083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N13">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O13">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P13">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q13">
-        <v>1477.384710239148</v>
+        <v>1256.541684950848</v>
       </c>
       <c r="R13">
-        <v>13296.46239215234</v>
+        <v>11308.87516455763</v>
       </c>
       <c r="S13">
-        <v>0.1104019080718823</v>
+        <v>0.09552096105860568</v>
       </c>
       <c r="T13">
-        <v>0.1104019080718824</v>
+        <v>0.09552096105860569</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.647417666666667</v>
+        <v>2.038157333333333</v>
       </c>
       <c r="H14">
-        <v>4.942253</v>
+        <v>6.114472</v>
       </c>
       <c r="I14">
-        <v>0.0263541358403184</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="J14">
-        <v>0.02635413584031841</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5736516666666667</v>
+        <v>0.9601406666666668</v>
       </c>
       <c r="N14">
-        <v>1.720955</v>
+        <v>2.880422</v>
       </c>
       <c r="O14">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="P14">
-        <v>0.002679700009502673</v>
+        <v>0.004534252661098308</v>
       </c>
       <c r="Q14">
-        <v>0.9450438901794445</v>
+        <v>1.956917740798222</v>
       </c>
       <c r="R14">
-        <v>8.505395011615001</v>
+        <v>17.612259667184</v>
       </c>
       <c r="S14">
-        <v>7.062117806173596E-05</v>
+        <v>0.0001487628031385155</v>
       </c>
       <c r="T14">
-        <v>7.062117806173597E-05</v>
+        <v>0.0001487628031385155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.647417666666667</v>
+        <v>2.038157333333333</v>
       </c>
       <c r="H15">
-        <v>4.942253</v>
+        <v>6.114472</v>
       </c>
       <c r="I15">
-        <v>0.0263541358403184</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="J15">
-        <v>0.02635413584031841</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.784709</v>
       </c>
       <c r="O15">
-        <v>0.01834997708788796</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="P15">
-        <v>0.01834997708788797</v>
+        <v>0.01855104847259158</v>
       </c>
       <c r="Q15">
-        <v>6.471445934375222</v>
+        <v>8.006363689849778</v>
       </c>
       <c r="R15">
-        <v>58.243013409377</v>
+        <v>72.057273208648</v>
       </c>
       <c r="S15">
-        <v>0.0004835977888409297</v>
+        <v>0.0006086352433815921</v>
       </c>
       <c r="T15">
-        <v>0.0004835977888409299</v>
+        <v>0.0006086352433815921</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.647417666666667</v>
+        <v>2.038157333333333</v>
       </c>
       <c r="H16">
-        <v>4.942253</v>
+        <v>6.114472</v>
       </c>
       <c r="I16">
-        <v>0.0263541358403184</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="J16">
-        <v>0.02635413584031841</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.187343666666667</v>
+        <v>1.316544333333334</v>
       </c>
       <c r="N16">
-        <v>12.562031</v>
+        <v>3.949633</v>
       </c>
       <c r="O16">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196653</v>
       </c>
       <c r="P16">
-        <v>0.01956034561628449</v>
+        <v>0.006217364657196652</v>
       </c>
       <c r="Q16">
-        <v>6.898303932871445</v>
+        <v>2.683324487641778</v>
       </c>
       <c r="R16">
-        <v>62.084735395843</v>
+        <v>24.149920388776</v>
       </c>
       <c r="S16">
-        <v>0.0005154960054551381</v>
+        <v>0.000203983470633256</v>
       </c>
       <c r="T16">
-        <v>0.0005154960054551381</v>
+        <v>0.000203983470633256</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.647417666666667</v>
+        <v>2.038157333333333</v>
       </c>
       <c r="H17">
-        <v>4.942253</v>
+        <v>6.114472</v>
       </c>
       <c r="I17">
-        <v>0.0263541358403184</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="J17">
-        <v>0.02635413584031841</v>
+        <v>0.0328086708565732</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>205.3838603333334</v>
+        <v>205.547872</v>
       </c>
       <c r="N17">
-        <v>616.1515810000001</v>
+        <v>616.643616</v>
       </c>
       <c r="O17">
-        <v>0.9594099772863248</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="P17">
-        <v>0.9594099772863249</v>
+        <v>0.9706973342091134</v>
       </c>
       <c r="Q17">
-        <v>338.3529999613326</v>
+        <v>418.9389026678613</v>
       </c>
       <c r="R17">
-        <v>3045.176999651993</v>
+        <v>3770.450124010752</v>
       </c>
       <c r="S17">
-        <v>0.0252844208679606</v>
+        <v>0.03184728933941983</v>
       </c>
       <c r="T17">
-        <v>0.0252844208679606</v>
+        <v>0.03184728933941983</v>
       </c>
     </row>
   </sheetData>
